--- a/qn.xlsx
+++ b/qn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="11100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="std" sheetId="2" r:id="rId1"/>
@@ -460,7 +460,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,13 +468,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -489,8 +502,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G52"/>
     </sheetView>
   </sheetViews>
@@ -2035,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,7 +2077,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B2" t="s">
@@ -2077,7 +2091,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
@@ -2091,7 +2105,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
@@ -2105,7 +2119,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
@@ -2116,7 +2130,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B6" t="s">
@@ -2130,7 +2144,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B7" t="s">
@@ -2144,7 +2158,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B8" t="s">
@@ -2158,7 +2172,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B9" t="s">
@@ -2172,7 +2186,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B10" t="s">
@@ -3012,5 +3026,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>